--- a/Notes TO BE DELETED/Book1.xlsx
+++ b/Notes TO BE DELETED/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seb/Documents/Stuff/My Website training/Public Repos/Global Website/Notes TO BE DELETED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CB3DC4D5-C9D2-E44A-A03C-9E0D097ABFA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B781C-3793-B048-990C-1E9A1FD82BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="30820" windowHeight="17440" xr2:uid="{C54AAA74-8607-684B-A737-5F1CFB45A4A8}"/>
+    <workbookView xWindow="1380" yWindow="780" windowWidth="30820" windowHeight="17440" xr2:uid="{C54AAA74-8607-684B-A737-5F1CFB45A4A8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
   <si>
     <t>Global Formatki</t>
   </si>
@@ -122,12 +122,6 @@
     <t>Nr telefonu</t>
   </si>
   <si>
-    <t>Data dostawy (check box - od razu, podaj date)</t>
-  </si>
-  <si>
-    <t>Zloz zamowienie</t>
-  </si>
-  <si>
     <t>Panel Admina</t>
   </si>
   <si>
@@ -252,13 +246,91 @@
   </si>
   <si>
     <t>EKsport JSON</t>
+  </si>
+  <si>
+    <t>Zawartosc</t>
+  </si>
+  <si>
+    <t>Sortuj wg</t>
+  </si>
+  <si>
+    <t>Zleceniodawcy</t>
+  </si>
+  <si>
+    <t>Odbiorcy</t>
+  </si>
+  <si>
+    <t>Oczekujace</t>
+  </si>
+  <si>
+    <t>wartosc przesylki</t>
+  </si>
+  <si>
+    <t>Numer SKU (Stock keeping unit)</t>
+  </si>
+  <si>
+    <t>Uwagi</t>
+  </si>
+  <si>
+    <t>SKU</t>
+  </si>
+  <si>
+    <t>Nr Zlecenia</t>
+  </si>
+  <si>
+    <t>Tabela zamowien uzytkownika</t>
+  </si>
+  <si>
+    <t>Dane przesylki</t>
+  </si>
+  <si>
+    <t>Paczka (opis paczki)</t>
+  </si>
+  <si>
+    <t>Waga (dropdown w kg)</t>
+  </si>
+  <si>
+    <t>Wysokosc</t>
+  </si>
+  <si>
+    <t>glebokosc</t>
+  </si>
+  <si>
+    <t>dlugosc</t>
+  </si>
+  <si>
+    <t>Zamowienie (wyswietlane po kjlikniecu na zamowienie z listy)</t>
+  </si>
+  <si>
+    <t>Jasko</t>
+  </si>
+  <si>
+    <t>Kupa</t>
+  </si>
+  <si>
+    <t>4545asds</t>
+  </si>
+  <si>
+    <t>W realizacji</t>
+  </si>
+  <si>
+    <t>4554DAFS</t>
+  </si>
+  <si>
+    <t>SORTUJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zrealizowane </t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -284,6 +356,21 @@
       <u/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="2" tint="-9.9978637043366805E-2"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -416,7 +503,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -432,10 +519,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -750,16 +854,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79E1DF2-19EF-F342-84AA-1AB5A168544B}">
-  <dimension ref="A1:P60"/>
+  <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="A50" sqref="A50:E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="18.5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="17.5" bestFit="1" customWidth="1"/>
@@ -891,18 +995,27 @@
       <c r="D18" s="7"/>
     </row>
     <row r="19" spans="1:16">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="16" t="s">
         <v>8</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
+      <c r="K19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L19" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="20" spans="1:16">
       <c r="A20" s="8"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
+      <c r="L20" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="21" spans="1:16">
       <c r="A21" s="8" t="s">
@@ -911,12 +1024,18 @@
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
       <c r="D21" s="7"/>
+      <c r="L21" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="1:16">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
+      <c r="L22" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="23" spans="1:16">
       <c r="A23" s="6"/>
@@ -944,10 +1063,12 @@
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="G24" s="6"/>
       <c r="H24" s="8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6"/>
@@ -977,25 +1098,25 @@
       <c r="P25" s="6"/>
     </row>
     <row r="26" spans="1:16">
-      <c r="A26" s="17" t="s">
+      <c r="A26" s="16" t="s">
         <v>17</v>
       </c>
       <c r="B26" s="6"/>
-      <c r="C26" s="17" t="s">
-        <v>48</v>
+      <c r="C26" s="16" t="s">
+        <v>46</v>
       </c>
       <c r="D26" s="6"/>
-      <c r="E26" s="17" t="s">
+      <c r="E26" s="16" t="s">
         <v>22</v>
       </c>
       <c r="F26" s="7"/>
-      <c r="H26" s="17" t="s">
-        <v>59</v>
+      <c r="H26" s="16" t="s">
+        <v>57</v>
       </c>
       <c r="I26" s="6"/>
       <c r="J26" s="6"/>
       <c r="K26" s="6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="L26" s="1"/>
       <c r="M26" s="6"/>
@@ -1006,15 +1127,15 @@
     <row r="27" spans="1:16">
       <c r="A27" s="8"/>
       <c r="B27" s="6"/>
-      <c r="C27" s="17" t="s">
-        <v>30</v>
+      <c r="C27" s="16" t="s">
+        <v>28</v>
       </c>
       <c r="D27" s="6"/>
       <c r="E27" s="6"/>
       <c r="F27" s="7"/>
       <c r="G27" s="6"/>
-      <c r="H27" s="17" t="s">
-        <v>31</v>
+      <c r="H27" s="16" t="s">
+        <v>29</v>
       </c>
       <c r="I27" s="6"/>
       <c r="J27" s="6"/>
@@ -1030,19 +1151,22 @@
         <v>23</v>
       </c>
       <c r="B28" s="6"/>
-      <c r="C28" s="17" t="s">
+      <c r="C28" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
       <c r="F28" s="7"/>
       <c r="G28" s="6"/>
-      <c r="H28" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="I28" t="s">
-        <v>67</v>
-      </c>
+      <c r="H28" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="I28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="J28" s="6"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
       <c r="O28" s="7"/>
@@ -1053,13 +1177,18 @@
         <v>24</v>
       </c>
       <c r="B29" s="6"/>
-      <c r="C29" s="17" t="s">
+      <c r="C29" s="16" t="s">
         <v>21</v>
       </c>
       <c r="D29" s="6"/>
       <c r="E29" s="6"/>
       <c r="F29" s="7"/>
       <c r="G29" s="6"/>
+      <c r="H29" s="8"/>
+      <c r="I29" s="6"/>
+      <c r="J29" s="6"/>
+      <c r="K29" s="6"/>
+      <c r="L29" s="6"/>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
       <c r="O29" s="7"/>
@@ -1076,10 +1205,10 @@
       <c r="F30" s="7"/>
       <c r="G30" s="6"/>
       <c r="H30" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I30" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J30" s="6"/>
       <c r="K30" s="6"/>
@@ -1100,28 +1229,28 @@
       <c r="F31" s="7"/>
       <c r="G31" s="6"/>
       <c r="H31" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="I31" s="1" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K31" s="1" t="s">
         <v>11</v>
       </c>
       <c r="L31" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N31" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="P31" s="6"/>
     </row>
@@ -1134,22 +1263,22 @@
       <c r="F32" s="7"/>
       <c r="G32" s="6"/>
       <c r="H32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="16">
+        <v>30</v>
+      </c>
+      <c r="I32" s="15">
         <v>45545</v>
       </c>
       <c r="J32" s="1">
         <v>122</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="N32" s="1"/>
       <c r="O32" s="1"/>
@@ -1160,31 +1289,32 @@
         <v>11</v>
       </c>
       <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
       <c r="G33" s="6"/>
       <c r="H33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I33" s="16">
+        <v>31</v>
+      </c>
+      <c r="I33" s="15">
         <v>554545</v>
       </c>
       <c r="J33" s="1">
         <v>121</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="L33" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="M33" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="M33" s="1" t="s">
-        <v>56</v>
       </c>
       <c r="N33" s="1"/>
       <c r="O33" s="1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="P33" s="6"/>
     </row>
@@ -1193,31 +1323,32 @@
         <v>12</v>
       </c>
       <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6"/>
       <c r="F34" s="7"/>
       <c r="G34" s="6"/>
       <c r="H34" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="I34" s="16">
+        <v>32</v>
+      </c>
+      <c r="I34" s="15">
         <v>545454</v>
       </c>
       <c r="J34" s="1">
         <v>121</v>
       </c>
       <c r="K34" s="13" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="N34" s="1"/>
       <c r="O34" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P34" s="6"/>
     </row>
@@ -1226,10 +1357,16 @@
         <v>13</v>
       </c>
       <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="6"/>
       <c r="F35" s="7"/>
       <c r="G35" s="6"/>
+      <c r="H35" s="8"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
       <c r="M35" s="6"/>
       <c r="N35" s="6"/>
       <c r="O35" s="7"/>
@@ -1245,14 +1382,16 @@
       <c r="E36" s="6"/>
       <c r="F36" s="7"/>
       <c r="G36" s="6"/>
-      <c r="H36" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="I36" s="6"/>
-      <c r="J36" s="6"/>
-      <c r="K36" s="6"/>
-      <c r="L36" s="6"/>
-      <c r="O36" s="7"/>
+      <c r="H36" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="I36" s="19"/>
+      <c r="J36" s="19"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="19"/>
+      <c r="M36" s="19"/>
+      <c r="N36" s="19"/>
+      <c r="O36" s="20"/>
       <c r="P36" s="6"/>
     </row>
     <row r="37" spans="1:16">
@@ -1264,16 +1403,18 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
       <c r="F37" s="7"/>
-      <c r="H37" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I37" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="J37" s="1"/>
-      <c r="K37" s="1"/>
-      <c r="L37" s="1"/>
-      <c r="O37" s="15"/>
+      <c r="H37" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="I37" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="J37" s="22"/>
+      <c r="K37" s="22"/>
+      <c r="L37" s="22"/>
+      <c r="M37" s="19"/>
+      <c r="N37" s="19"/>
+      <c r="O37" s="23"/>
       <c r="P37" s="6"/>
     </row>
     <row r="38" spans="1:16">
@@ -1285,22 +1426,24 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
       <c r="F38" s="7"/>
-      <c r="H38" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="J38" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L38" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O38" s="15"/>
+      <c r="H38" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I38" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="J38" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="K38" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L38" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="23"/>
       <c r="P38" s="6"/>
     </row>
     <row r="39" spans="1:16">
@@ -1312,52 +1455,58 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
       <c r="F39" s="7"/>
-      <c r="H39" s="13" t="s">
+      <c r="H39" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="J39" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K39" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="J39" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K39" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L39" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O39" s="7"/>
+      <c r="L39" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="M39" s="19"/>
+      <c r="N39" s="19"/>
+      <c r="O39" s="20"/>
       <c r="P39" s="6"/>
     </row>
     <row r="40" spans="1:16">
-      <c r="A40" s="8"/>
+      <c r="A40" s="5" t="s">
+        <v>79</v>
+      </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
-      <c r="H40" s="13" t="s">
+      <c r="H40" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="I40" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="J40" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="K40" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L40" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="J40" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="K40" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="L40" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="O40" s="7"/>
+      <c r="M40" s="19"/>
+      <c r="N40" s="19"/>
+      <c r="O40" s="20"/>
       <c r="P40" s="6"/>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="12" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1365,26 +1514,47 @@
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
       <c r="G41" s="6"/>
-      <c r="O41" s="7"/>
+      <c r="H41" s="18"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="19"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="19"/>
+      <c r="M41" s="19"/>
+      <c r="N41" s="19"/>
+      <c r="O41" s="20"/>
       <c r="P41" s="6"/>
     </row>
     <row r="42" spans="1:16">
-      <c r="A42" s="8"/>
-      <c r="B42" s="6"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="6"/>
+      <c r="A42" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>84</v>
+      </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
       <c r="G42" s="6"/>
-      <c r="H42" t="s">
-        <v>62</v>
-      </c>
-      <c r="O42" s="7"/>
+      <c r="H42" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="I42" s="19"/>
+      <c r="J42" s="19"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="19"/>
+      <c r="M42" s="19"/>
+      <c r="N42" s="19"/>
+      <c r="O42" s="20"/>
       <c r="P42" s="6"/>
     </row>
     <row r="43" spans="1:16">
-      <c r="A43" s="12" t="s">
-        <v>27</v>
+      <c r="A43" s="8" t="s">
+        <v>73</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1392,187 +1562,218 @@
       <c r="E43" s="6"/>
       <c r="F43" s="7"/>
       <c r="G43" s="6"/>
-      <c r="H43" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="I43" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="J43" s="6"/>
-      <c r="K43" s="6"/>
-      <c r="L43" s="6"/>
-      <c r="M43" s="6"/>
-      <c r="N43" s="6"/>
-      <c r="O43" s="7"/>
+      <c r="H43" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="I43" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="J43" s="19"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="19"/>
+      <c r="M43" s="19"/>
+      <c r="N43" s="19"/>
+      <c r="O43" s="20"/>
       <c r="P43" s="6"/>
     </row>
     <row r="44" spans="1:16">
-      <c r="A44" s="8"/>
+      <c r="A44" s="12" t="s">
+        <v>74</v>
+      </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
       <c r="F44" s="7"/>
       <c r="G44" s="6"/>
-      <c r="H44" s="13" t="s">
+      <c r="H44" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="I44" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="J44" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="K44" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="J44" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="K44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L44" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="N44" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="O44" s="7"/>
+      <c r="N44" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="O44" s="20"/>
       <c r="P44" s="6"/>
     </row>
     <row r="45" spans="1:16">
-      <c r="A45" s="9"/>
+      <c r="A45" s="9" t="s">
+        <v>75</v>
+      </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
       <c r="F45" s="11"/>
       <c r="G45" s="6"/>
-      <c r="H45" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I45" s="16">
+      <c r="H45" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" s="24">
         <v>45545</v>
       </c>
-      <c r="J45" s="1">
+      <c r="J45" s="22">
         <v>122</v>
       </c>
-      <c r="K45" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="L45" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="M45" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="N45" s="1"/>
-      <c r="O45" s="7"/>
+      <c r="K45" s="22" t="s">
+        <v>48</v>
+      </c>
+      <c r="L45" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="M45" s="22" t="s">
+        <v>55</v>
+      </c>
+      <c r="N45" s="22"/>
+      <c r="O45" s="20"/>
       <c r="P45" s="6"/>
     </row>
     <row r="46" spans="1:16">
-      <c r="A46" s="6"/>
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
-      <c r="H46" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I46" s="16">
+      <c r="H46" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" s="24">
         <v>554545</v>
       </c>
-      <c r="J46" s="1">
+      <c r="J46" s="22">
         <v>121</v>
       </c>
-      <c r="K46" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="L46" s="1" t="s">
+      <c r="K46" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="L46" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="M46" s="22" t="s">
         <v>54</v>
       </c>
-      <c r="M46" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N46" s="1"/>
-      <c r="O46" s="7"/>
+      <c r="N46" s="22"/>
+      <c r="O46" s="20"/>
       <c r="P46" s="6"/>
     </row>
     <row r="47" spans="1:16">
-      <c r="A47" s="6"/>
-      <c r="B47" s="6"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="6"/>
-      <c r="F47" s="6"/>
+      <c r="A47" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D47" s="29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E47" s="29" t="s">
+        <v>76</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="G47" s="6"/>
-      <c r="H47" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I47" s="16">
+      <c r="H47" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I47" s="24">
         <v>545454</v>
       </c>
-      <c r="J47" s="1">
+      <c r="J47" s="22">
         <v>121</v>
       </c>
-      <c r="K47" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="L47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="M47" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="N47" s="1"/>
-      <c r="O47" s="7"/>
+      <c r="K47" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="L47" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="M47" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="N47" s="22"/>
+      <c r="O47" s="20"/>
       <c r="P47" s="6"/>
     </row>
     <row r="48" spans="1:16">
-      <c r="A48" s="6"/>
+      <c r="A48" s="8"/>
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
-      <c r="F48" s="6"/>
+      <c r="F48" s="7" t="s">
+        <v>92</v>
+      </c>
       <c r="G48" s="6"/>
-      <c r="H48" s="8"/>
-      <c r="I48" s="6"/>
-      <c r="J48" s="6"/>
-      <c r="K48" s="6"/>
-      <c r="L48" s="6"/>
-      <c r="M48" s="6"/>
-      <c r="N48" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="O48" s="7"/>
+      <c r="H48" s="18"/>
+      <c r="I48" s="19"/>
+      <c r="J48" s="19"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="19"/>
+      <c r="M48" s="19"/>
+      <c r="N48" s="25" t="s">
+        <v>62</v>
+      </c>
+      <c r="O48" s="20"/>
       <c r="P48" s="6"/>
     </row>
     <row r="49" spans="1:16">
-      <c r="A49" s="6"/>
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
+      <c r="A49" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E49" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>72</v>
+      </c>
       <c r="G49" s="6"/>
-      <c r="H49" s="9"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
-      <c r="K49" s="10"/>
-      <c r="L49" s="10"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="10"/>
-      <c r="O49" s="11"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
+      <c r="K49" s="27"/>
+      <c r="L49" s="27"/>
+      <c r="M49" s="27"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="28"/>
       <c r="P49" s="6"/>
     </row>
     <row r="50" spans="1:16">
-      <c r="A50" s="6"/>
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
+      <c r="A50" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="31"/>
+      <c r="C50" s="31"/>
+      <c r="D50" s="31"/>
+      <c r="E50" s="31"/>
+      <c r="F50" s="7"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
       <c r="I50" s="6"/>
@@ -1580,12 +1781,12 @@
       <c r="K50" s="6"/>
     </row>
     <row r="51" spans="1:16">
-      <c r="A51" s="6"/>
+      <c r="A51" s="8"/>
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="6"/>
-      <c r="F51" s="6"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
       <c r="I51" s="6"/>
@@ -1593,12 +1794,12 @@
       <c r="K51" s="6"/>
     </row>
     <row r="52" spans="1:16">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="6"/>
+      <c r="A52" s="9"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="10"/>
+      <c r="E52" s="10"/>
+      <c r="F52" s="11"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
       <c r="I52" s="6"/>
@@ -1632,12 +1833,14 @@
       <c r="K54" s="6"/>
     </row>
     <row r="55" spans="1:16">
-      <c r="A55" s="6"/>
-      <c r="B55" s="6"/>
-      <c r="C55" s="6"/>
-      <c r="D55" s="6"/>
-      <c r="E55" s="6"/>
-      <c r="F55" s="6"/>
+      <c r="A55" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+      <c r="F55" s="4"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
       <c r="I55" s="6"/>
@@ -1645,66 +1848,159 @@
       <c r="K55" s="6"/>
     </row>
     <row r="56" spans="1:16">
-      <c r="A56" s="6"/>
+      <c r="A56" s="8"/>
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="6"/>
-      <c r="F56" s="6"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
       <c r="I56" s="6"/>
       <c r="J56" s="6"/>
     </row>
     <row r="57" spans="1:16">
-      <c r="A57" s="6"/>
+      <c r="A57" s="8" t="s">
+        <v>43</v>
+      </c>
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="6"/>
-      <c r="F57" s="6"/>
+      <c r="F57" s="7"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
       <c r="I57" s="6"/>
       <c r="J57" s="6"/>
     </row>
     <row r="58" spans="1:16">
-      <c r="A58" s="6"/>
+      <c r="A58" s="8"/>
       <c r="B58" s="6"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="6"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
       <c r="I58" s="6"/>
       <c r="J58" s="6"/>
     </row>
     <row r="59" spans="1:16">
-      <c r="A59" s="6"/>
+      <c r="A59" s="8" t="s">
+        <v>11</v>
+      </c>
       <c r="B59" s="6"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="6"/>
-      <c r="F59" s="6"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
       <c r="I59" s="6"/>
       <c r="J59" s="6"/>
     </row>
     <row r="60" spans="1:16">
-      <c r="A60" s="6"/>
+      <c r="A60" s="8"/>
       <c r="B60" s="6"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="6"/>
-      <c r="F60" s="6"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
       <c r="I60" s="6"/>
       <c r="J60" s="6"/>
     </row>
+    <row r="61" spans="1:16">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6"/>
+      <c r="C61" s="6"/>
+      <c r="D61" s="6"/>
+      <c r="E61" s="6"/>
+      <c r="F61" s="7"/>
+    </row>
+    <row r="62" spans="1:16">
+      <c r="A62" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B62" s="6"/>
+      <c r="C62" s="6"/>
+      <c r="D62" s="6"/>
+      <c r="E62" s="6"/>
+      <c r="F62" s="7"/>
+    </row>
+    <row r="63" spans="1:16">
+      <c r="A63" s="8"/>
+      <c r="B63" s="6"/>
+      <c r="C63" s="6"/>
+      <c r="D63" s="6"/>
+      <c r="E63" s="6"/>
+      <c r="F63" s="7"/>
+    </row>
+    <row r="64" spans="1:16">
+      <c r="A64" s="8"/>
+      <c r="B64" s="6"/>
+      <c r="C64" s="6"/>
+      <c r="D64" s="6"/>
+      <c r="E64" s="6"/>
+      <c r="F64" s="7"/>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="8"/>
+      <c r="B65" s="6"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="6"/>
+      <c r="E65" s="6"/>
+      <c r="F65" s="7"/>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" s="6"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="6"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
+    </row>
+    <row r="67" spans="1:6">
+      <c r="A67" s="8"/>
+      <c r="B67" s="6"/>
+      <c r="C67" s="6"/>
+      <c r="D67" s="6"/>
+      <c r="E67" s="6"/>
+      <c r="F67" s="7"/>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B68" s="6"/>
+      <c r="C68" s="6"/>
+      <c r="D68" s="6"/>
+      <c r="E68" s="6"/>
+      <c r="F68" s="7"/>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="8"/>
+      <c r="B69" s="6"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="6"/>
+      <c r="E69" s="6"/>
+      <c r="F69" s="7"/>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="9"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="10"/>
+      <c r="D70" s="10"/>
+      <c r="E70" s="10"/>
+      <c r="F70" s="11"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A50:E50"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Notes TO BE DELETED/Book1.xlsx
+++ b/Notes TO BE DELETED/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/seb/Documents/Stuff/My Website training/Public Repos/Global Website/Notes TO BE DELETED/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA0B781C-3793-B048-990C-1E9A1FD82BD0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37CB0690-BE7F-9543-8A54-483EAF539316}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1380" yWindow="780" windowWidth="30820" windowHeight="17440" xr2:uid="{C54AAA74-8607-684B-A737-5F1CFB45A4A8}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="92">
   <si>
     <t>Global Formatki</t>
   </si>
@@ -248,9 +248,6 @@
     <t>EKsport JSON</t>
   </si>
   <si>
-    <t>Zawartosc</t>
-  </si>
-  <si>
     <t>Sortuj wg</t>
   </si>
   <si>
@@ -272,12 +269,6 @@
     <t>Uwagi</t>
   </si>
   <si>
-    <t>SKU</t>
-  </si>
-  <si>
-    <t>Nr Zlecenia</t>
-  </si>
-  <si>
     <t>Tabela zamowien uzytkownika</t>
   </si>
   <si>
@@ -314,9 +305,6 @@
     <t>W realizacji</t>
   </si>
   <si>
-    <t>4554DAFS</t>
-  </si>
-  <si>
     <t>SORTUJ</t>
   </si>
   <si>
@@ -324,6 +312,12 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Opis paczki</t>
+  </si>
+  <si>
+    <t>Numer SKU</t>
   </si>
 </sst>
 </file>
@@ -856,8 +850,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F79E1DF2-19EF-F342-84AA-1AB5A168544B}">
   <dimension ref="A1:P70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="A50" sqref="A50:E50"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -1002,10 +996,10 @@
       <c r="C19" s="6"/>
       <c r="D19" s="7"/>
       <c r="K19" t="s">
+        <v>68</v>
+      </c>
+      <c r="L19" t="s">
         <v>69</v>
-      </c>
-      <c r="L19" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="20" spans="1:16">
@@ -1014,7 +1008,7 @@
       <c r="C20" s="6"/>
       <c r="D20" s="7"/>
       <c r="L20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="21" spans="1:16">
@@ -1034,7 +1028,7 @@
       <c r="C22" s="10"/>
       <c r="D22" s="11"/>
       <c r="L22" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:16">
@@ -1064,7 +1058,7 @@
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="8" t="s">
@@ -1477,7 +1471,7 @@
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
@@ -1506,7 +1500,7 @@
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
@@ -1526,16 +1520,16 @@
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C42" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D42" s="17" t="s">
         <v>81</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>83</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>84</v>
       </c>
       <c r="E42" s="6"/>
       <c r="F42" s="7"/>
@@ -1554,7 +1548,7 @@
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
@@ -1578,7 +1572,7 @@
     </row>
     <row r="44" spans="1:16">
       <c r="A44" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
@@ -1612,7 +1606,7 @@
     </row>
     <row r="45" spans="1:16">
       <c r="A45" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B45" s="10"/>
       <c r="C45" s="10"/>
@@ -1676,19 +1670,17 @@
         <v>43</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>68</v>
+        <v>90</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="D47" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E47" s="29" t="s">
-        <v>76</v>
-      </c>
+      <c r="E47" s="29"/>
       <c r="F47" s="4" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="21" t="s">
@@ -1720,7 +1712,7 @@
       <c r="D48" s="6"/>
       <c r="E48" s="6"/>
       <c r="F48" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G48" s="6"/>
       <c r="H48" s="18"/>
@@ -1737,22 +1729,20 @@
     </row>
     <row r="49" spans="1:16">
       <c r="A49" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D49" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="B49" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="D49" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="E49" s="17" t="s">
-        <v>90</v>
-      </c>
+      <c r="E49" s="17"/>
       <c r="F49" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G49" s="6"/>
       <c r="H49" s="26"/>
@@ -1767,7 +1757,7 @@
     </row>
     <row r="50" spans="1:16">
       <c r="A50" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B50" s="31"/>
       <c r="C50" s="31"/>
@@ -1834,7 +1824,7 @@
     </row>
     <row r="55" spans="1:16">
       <c r="A55" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -1921,7 +1911,7 @@
     </row>
     <row r="62" spans="1:16">
       <c r="A62" s="8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B62" s="6"/>
       <c r="C62" s="6"/>
@@ -1955,7 +1945,7 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
